--- a/몰랑몰랑/몰랑몰랑_2021-08-12.xlsx
+++ b/몰랑몰랑/몰랑몰랑_2021-08-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Ravero</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>애교천사</t>
-  </si>
-  <si>
-    <t>아몰라그냥해</t>
   </si>
   <si>
     <t>멍청한상어</t>
@@ -482,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,11 +670,6 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
